--- a/example/Report.xlsx
+++ b/example/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/686E0EB5-7A4F-4BA9-990C-1A00608B1930/Library/Application Support/Drafts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{4FA91365-5B29-BB4E-A328-FAF2FCE16E5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DC367193-516D-7742-9859-0083FB5A1F3E}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{4FA91365-5B29-BB4E-A328-FAF2FCE16E5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A9F56507-BF15-044B-B87F-D845FFE67D66}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,12 +31,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="6">
   <si>
-    <t>Hello</t>
+    <t>One</t>
   </si>
   <si>
-    <t>World</t>
+    <t>One point two</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>Another date</t>
   </si>
 </sst>
 </file>
@@ -72,8 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,22 +395,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6BD94A-F263-4242-A71C-CD71750D7072}">
-  <dimension ref="B3:B4"/>
+  <dimension ref="B3:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.35546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <f ca="1">TODAY()</f>
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44564</v>
       </c>
     </row>
   </sheetData>

--- a/example/Report.xlsx
+++ b/example/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/686E0EB5-7A4F-4BA9-990C-1A00608B1930/Library/Application Support/Drafts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{4FA91365-5B29-BB4E-A328-FAF2FCE16E5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A9F56507-BF15-044B-B87F-D845FFE67D66}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{4FA91365-5B29-BB4E-A328-FAF2FCE16E5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FFBCBF3D-6C49-B84F-A507-D9EBDDFC4D02}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,24 +31,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="6">
-  <si>
-    <t>One</t>
-  </si>
-  <si>
-    <t>One point two</t>
-  </si>
-  <si>
-    <t>Today</t>
-  </si>
-  <si>
-    <t>Another date</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="14">
+  <si>
+    <t>Bool</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Fraction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="_([$£-809]* #,##0_);_([$£-809]* \(#,##0\);_([$£-809]* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="[$-F400]h:mm:ss\ am/pm"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -78,9 +97,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6BD94A-F263-4242-A71C-CD71750D7072}">
-  <dimension ref="B3:C6"/>
+  <dimension ref="B3:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -408,7 +431,7 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -416,7 +439,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>1.2</v>
@@ -424,7 +447,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <f ca="1">TODAY()</f>
@@ -433,10 +456,50 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>44564</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.47430555555555554</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>
